--- a/data/trans_camb/P21_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,207 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-15,34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,48</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-15.50728084442944</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.423584691236623</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.760606006151711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-31,43; -1,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,48; 19,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,38; 6,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-31.70053686931859</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.23749049186081</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-18.55915688746165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-81,22%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,43%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-26,43%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-2.313878250493822</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.68540131807341</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.843151953867793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-50,75; 154,49</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-66,56; 50,05</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.8210506896764053</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.06452315471709878</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.2780167394683827</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>21,9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,02</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>-0.5404212217713963</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.6656674301941449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 55,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-22,05; 14,81</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 28,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="n">
+        <v>1.415434086580252</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.4564038754117875</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>155,32%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-10,22%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>44,18%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>19.04331636543407</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.7319364359590352</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.377493850322349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-48,14; 956,21</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-58,92; 78,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-25,59; 188,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.395445028668123</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.68706661729592</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.260308950608401</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>50.06408775068451</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.62470305961101</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>27.07292185151567</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,24; 14,84</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,88; 11,82</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,17; 9,08</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.35036253804607</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.0247820076538692</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.4317827734525956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,41%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,27%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4319135025450306</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.5406838700818133</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2375480295530739</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-46,83; 77,96</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-40,31; 66,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-33,05; 42,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>8.737417120862698</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.978431965558505</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.758514743588387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +771,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-5,47</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.9185992725695091</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.5013128585206916</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.05777678375935569</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-15,54; 4,11</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,21; 14,63</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,83; 7,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-16.63586661579719</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.25281982549708</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-9.92251140693409</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-41,13%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>18,83%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,98%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.620635200135</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>13.50485964908338</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9.206214151688808</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-82,03; 66,32</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-29,5; 103,36</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-37,59; 60,8</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.0351467117250753</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02035211133209573</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.002290566140291365</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-7,99</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-9,89</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-8,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.4946579957179633</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3810122882971731</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3254386320022049</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; 4,39</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-25,03; 5,68</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-18,52; 0,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.7727325232986206</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.747194331934545</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.4626845482040182</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-41,46%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-38,65%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-40,11%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-4.822286657535331</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.971879897942379</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.01402717257784625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-78,1; 40,54</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-74,59; 43,42</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-68,96; 4,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-15.07621381719886</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.109609589951793</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.395921225847665</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-5,96</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-4,37</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-5,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.202759918090917</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>15.55992391929964</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>8.44929104691874</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-24,03; 14,76</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-23,75; 15,32</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-18,97; 9,74</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.3627616627141524</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.1998085324443164</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.0008327758226391933</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-22,46%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-14,51%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-17,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.814994946398256</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2859212866748495</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.3674885755427941</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-69,94; 108,16</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-62,34; 80,79</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-53,54; 45,56</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.9304502230670848</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.0983942050556</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.6651762588708121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +983,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-8.388613981431238</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-9.865285858133218</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-9.033380290774382</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-8,74; 9,13</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; 5,66</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-5,78; 4,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-21.17717373662992</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-25.25128671374447</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-18.80750055474348</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-5,49%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-4,04%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-4,56%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>3.761406921595876</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>5.998401980435466</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0.1270127351887497</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-41,04; 55,59</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-23,87; 26,31</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-24,1; 23,46</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.4352409375649918</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.385452577139411</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.4111305112690836</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.7870238809697115</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.7447543094261647</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.6932086433847098</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.3818104236276068</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.4440846460877531</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.03299271302454667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-8.474217312041773</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-4.247043675097462</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-6.260756394519309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-25.65470135767864</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-23.50278698862302</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-19.90562360096627</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>12.41149654463477</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>16.0113170935422</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>8.217160809783813</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.3192339191838384</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.1408941480620734</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.2196944060106707</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.7445604374061259</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.6375016387591481</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.5672881622674741</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.8484655699571467</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.8100249805561642</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.3868929791117163</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-1.657388236465224</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.5265333353822316</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-1.067907518622507</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-9.132972024993299</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-6.305505233126442</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-5.743652598717667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>7.404475634745589</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>6.150612070262409</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>4.1229195997579</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.08660823479663372</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.02124510414989526</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.04819872516757843</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.4321975520008682</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.2326072411326247</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.2380640862120026</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.4614696833411838</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.282470837612355</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.2153859214516143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1299,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
